--- a/medicine/Sexualité et sexologie/Journée_mondiale_de_l'orgasme/Journée_mondiale_de_l'orgasme.xlsx
+++ b/medicine/Sexualité et sexologie/Journée_mondiale_de_l'orgasme/Journée_mondiale_de_l'orgasme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_de_l%27orgasme</t>
+          <t>Journée_mondiale_de_l'orgasme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Journée mondiale de l'orgasme se déroule le jour du solstice d'hiver, généralement le 21 décembre ou le 22 décembre en fonction des années[Note 1].
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_de_l%27orgasme</t>
+          <t>Journée_mondiale_de_l'orgasme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Journée mondiale de l'orgasme a été créée en 2006[1] par Donna Sheehan et Paul Reffell qui sont à l'origine de l'association Global orgasm for peace[2]. Ils travaillent en collaboration avec le projet Noosphere de l'université de Princeton et, plus récemment du Center for Subtle Activism[3].
-Les créateurs de la journée sont persuadés « qu'un nombre élevé de pensées positives liées à un plaisir sexuel quasi simultané peut modifier le champ d'énergie de la Terre et réduire, en conséquence, les niveaux dangereux d'agression et de violence actuelle »[4] et que donc, grâce à l'orgasme, les êtres humains seront plus heureux et donc moins violents[5].
-Si la Journée mondiale de l'orgasme a été créée initialement pour véhiculer un message de paix, elle a surtout pour objectif aujourd'hui de sensibiliser le public sur un problème qui touche de nombreuses femmes et affecte leur vie de couple : la dysorgasmie (orgasme douloureux) ou l'anorgasmie (absence d'orgasme durant les relations sexuelles), deux phénomènes qui touchent généralement plus les femmes que les hommes[6]. 
-Malgré l’abondante littérature de conseil qui vise à favoriser la jouissance féminine, une étude de l'Ifop commandée pour l'occasion de la journée de l'orgasme[7] démontre qu'une forte proportion de Françaises éprouve toujours de grandes difficultés à atteindre l’orgasme avec leur partenaire ; 20 % des femmes n'aurait pas eu d'orgasme durant l'année écoulée[8].Ce phénomène touche beaucoup plus les femmes que les hommes[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Journée mondiale de l'orgasme a été créée en 2006 par Donna Sheehan et Paul Reffell qui sont à l'origine de l'association Global orgasm for peace. Ils travaillent en collaboration avec le projet Noosphere de l'université de Princeton et, plus récemment du Center for Subtle Activism.
+Les créateurs de la journée sont persuadés « qu'un nombre élevé de pensées positives liées à un plaisir sexuel quasi simultané peut modifier le champ d'énergie de la Terre et réduire, en conséquence, les niveaux dangereux d'agression et de violence actuelle » et que donc, grâce à l'orgasme, les êtres humains seront plus heureux et donc moins violents.
+Si la Journée mondiale de l'orgasme a été créée initialement pour véhiculer un message de paix, elle a surtout pour objectif aujourd'hui de sensibiliser le public sur un problème qui touche de nombreuses femmes et affecte leur vie de couple : la dysorgasmie (orgasme douloureux) ou l'anorgasmie (absence d'orgasme durant les relations sexuelles), deux phénomènes qui touchent généralement plus les femmes que les hommes. 
+Malgré l’abondante littérature de conseil qui vise à favoriser la jouissance féminine, une étude de l'Ifop commandée pour l'occasion de la journée de l'orgasme démontre qu'une forte proportion de Françaises éprouve toujours de grandes difficultés à atteindre l’orgasme avec leur partenaire ; 20 % des femmes n'aurait pas eu d'orgasme durant l'année écoulée.Ce phénomène touche beaucoup plus les femmes que les hommes.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_de_l%27orgasme</t>
+          <t>Journée_mondiale_de_l'orgasme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Événements liés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de la journée de l'orgasme 2014, les deux sexologues qui tentent de percer les mystères de l’orgasme, Jean-Claude Piquard (auteur de La Fabuleuse Histoire du clitoris)[10] et Marie-Noëlle Lanuit, lancent une expérience scientifique dont le but est de mesurer la fréquence cardiaque lors de l'orgasme. Près de deux cents participants se sont branchés ce soir-là à un cardiofréquencemètre pendant leurs rapports sexuels pour mesurer la fluctuation de leur rythme cardiaque et ont communiqué leur résultat via le site internet de Jean-Claude Piquard[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de la journée de l'orgasme 2014, les deux sexologues qui tentent de percer les mystères de l’orgasme, Jean-Claude Piquard (auteur de La Fabuleuse Histoire du clitoris) et Marie-Noëlle Lanuit, lancent une expérience scientifique dont le but est de mesurer la fréquence cardiaque lors de l'orgasme. Près de deux cents participants se sont branchés ce soir-là à un cardiofréquencemètre pendant leurs rapports sexuels pour mesurer la fluctuation de leur rythme cardiaque et ont communiqué leur résultat via le site internet de Jean-Claude Piquard.
 </t>
         </is>
       </c>
